--- a/plan/test/結合テスト/結合テスト仕様書-FP006カテゴリ別商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP006カテゴリ別商品検索画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E4CDE-D385-4446-8136-89FDBE932C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24021385-1C7D-4C37-9FEC-9D71E76F0B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
   <si>
     <t>作成者</t>
   </si>
@@ -542,26 +542,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品画像を押下</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品詳細画面」へ遷移</t>
-    <rPh sb="1" eb="7">
-      <t>ショウヒンショウサイガメン</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>センイ</t>
@@ -921,16 +901,7 @@
       <t>タンカ</t>
     </rPh>
     <rPh sb="21" eb="23">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
+      <t>ショウサイショウヒンジョウホウヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1630,6 +1601,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1637,13 +1641,52 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1651,6 +1694,27 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1686,99 +1750,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2130,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:Q4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2151,25 +2122,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2184,23 +2155,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2213,50 +2184,50 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -2265,20 +2236,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="27" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
@@ -2288,270 +2259,270 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="18"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="18"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="69"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="71"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="1:17" ht="23.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="18"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="65"/>
+      <c r="P10" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="45"/>
     </row>
     <row r="11" spans="1:17" ht="33.5" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="18"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="67"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="47"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="24" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="18"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="18"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="24" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="18"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="34"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="18"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="34"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="18"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2563,18 +2534,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="18"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2586,20 +2557,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="18"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2611,18 +2582,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="24" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="18"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2634,18 +2605,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="24" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="18"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2657,18 +2628,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="24" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="18"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2680,18 +2651,18 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="24" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="18"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2703,18 +2674,18 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="24" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="18"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2726,18 +2697,18 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="24" t="s">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="18"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2749,18 +2720,18 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="24" t="s">
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="18"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2772,18 +2743,18 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="24" t="s">
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
       <c r="M26" s="18"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2795,18 +2766,18 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="24" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="28"/>
       <c r="M27" s="18"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2818,18 +2789,18 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="24" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
       <c r="M28" s="18"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2841,18 +2812,18 @@
         <v>24</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="24" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
       <c r="M29" s="18"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2863,73 +2834,73 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
       <c r="M30" s="18"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="23"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" ht="23" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="26"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
       <c r="M31" s="18"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="23"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
     </row>
     <row r="32" spans="1:17" ht="23" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
       <c r="M32" s="18"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2940,21 +2911,21 @@
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="26"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="28"/>
       <c r="M33" s="18"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2965,21 +2936,21 @@
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="26"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="28"/>
       <c r="M34" s="18"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2990,223 +2961,223 @@
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
+      <c r="C35" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="18"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="18"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="26"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="28"/>
       <c r="M37" s="18"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="26"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28"/>
       <c r="M38" s="18"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="26"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="28"/>
       <c r="M39" s="18"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="26"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="28"/>
       <c r="M40" s="18"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="49" t="s">
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
       <c r="M41" s="18"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="49" t="s">
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
       <c r="M42" s="18"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="24" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
       <c r="M43" s="18"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3217,21 +3188,21 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="24" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="28"/>
       <c r="M44" s="18"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3242,21 +3213,21 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="24" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
       <c r="M45" s="18"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3267,21 +3238,21 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
       <c r="M46" s="18"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -3292,21 +3263,21 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="28"/>
       <c r="M47" s="18"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -3317,21 +3288,21 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="26"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
       <c r="M48" s="18"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -3342,21 +3313,21 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
       <c r="M49" s="18"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -3367,21 +3338,21 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
       <c r="M50" s="18"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -3392,21 +3363,21 @@
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
       <c r="M51" s="18"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -3417,21 +3388,21 @@
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
       <c r="M52" s="18"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3442,21 +3413,21 @@
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
       <c r="M53" s="18"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3467,419 +3438,417 @@
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
       <c r="M54" s="18"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="14"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="1:17" ht="12" customHeight="1">
+    <row r="55" spans="1:17" ht="35" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
+      <c r="B55" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="37"/>
       <c r="M55" s="18"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="15"/>
-    </row>
-    <row r="56" spans="1:17" ht="35" customHeight="1">
-      <c r="A56" s="6">
-        <v>51</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="21"/>
-    </row>
-    <row r="58" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A58" s="41" t="s">
+      <c r="P55" s="20"/>
+      <c r="Q55" s="21"/>
+    </row>
+    <row r="57" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A57" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="44" t="s">
+      <c r="B57" s="56"/>
+      <c r="C57" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="45"/>
-    </row>
-    <row r="59" spans="1:17" ht="40" customHeight="1">
-      <c r="A59" s="41" t="s">
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="58"/>
+    </row>
+    <row r="58" spans="1:17" ht="40" customHeight="1">
+      <c r="A58" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43" t="s">
+      <c r="B58" s="56"/>
+      <c r="C58" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="45"/>
-    </row>
-    <row r="60" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A60" s="13" t="s">
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="58"/>
+    </row>
+    <row r="59" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A59" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C59" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="27" t="s">
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="16" t="s">
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="13" t="s">
+      <c r="N59" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O60" s="13" t="s">
+      <c r="O59" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P60" s="27" t="s">
+      <c r="P59" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q60" s="46"/>
+      <c r="Q59" s="53"/>
+    </row>
+    <row r="60" spans="1:17" ht="12" customHeight="1">
+      <c r="A60" s="6">
+        <v>1</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
     </row>
     <row r="61" spans="1:17" ht="12" customHeight="1">
       <c r="A61" s="6">
-        <v>1</v>
-      </c>
-      <c r="B61" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
       <c r="M61" s="18"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
     </row>
     <row r="62" spans="1:17" ht="12" customHeight="1">
       <c r="A62" s="6">
-        <v>2</v>
-      </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="28"/>
       <c r="M62" s="18"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="23"/>
     </row>
     <row r="63" spans="1:17" ht="12" customHeight="1">
       <c r="A63" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="26"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="28"/>
       <c r="M63" s="18"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="69"/>
-    </row>
-    <row r="64" spans="1:17" ht="12" customHeight="1">
+      <c r="P63" s="24"/>
+      <c r="Q63" s="25"/>
+    </row>
+    <row r="64" spans="1:17" ht="23.5" customHeight="1">
       <c r="A64" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="26"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="28"/>
       <c r="M64" s="18"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="71"/>
-    </row>
-    <row r="65" spans="1:17" ht="23.5" customHeight="1">
+      <c r="P64" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q64" s="45"/>
+    </row>
+    <row r="65" spans="1:17" ht="33.5" customHeight="1">
       <c r="A65" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="26"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="28"/>
       <c r="M65" s="18"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q65" s="65"/>
-    </row>
-    <row r="66" spans="1:17" ht="33.5" customHeight="1">
+      <c r="P65" s="46"/>
+      <c r="Q65" s="47"/>
+    </row>
+    <row r="66" spans="1:17" ht="12" customHeight="1">
       <c r="A66" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B66" s="7"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="26"/>
+      <c r="C66" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="28"/>
       <c r="M66" s="18"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="67"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="34"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1">
       <c r="A67" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="26"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="28"/>
       <c r="M67" s="18"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="23"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="34"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1">
       <c r="A68" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68" s="7"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="26"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="28"/>
       <c r="M68" s="18"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="23"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="34"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1">
       <c r="A69" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="26"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="28"/>
       <c r="M69" s="18"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="23"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="34"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1">
       <c r="A70" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="26"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="28"/>
       <c r="M70" s="18"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="23"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="1:17" ht="12" customHeight="1">
       <c r="A71" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" s="7"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="26"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="28"/>
       <c r="M71" s="18"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -3888,21 +3857,23 @@
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1">
       <c r="A72" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B72" s="7"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="26"/>
+      <c r="C72" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="28"/>
       <c r="M72" s="18"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -3911,23 +3882,21 @@
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1">
       <c r="A73" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73" s="7"/>
-      <c r="C73" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="26"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="28"/>
       <c r="M73" s="18"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -3936,21 +3905,21 @@
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1">
       <c r="A74" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B74" s="7"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="26"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="28"/>
       <c r="M74" s="18"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -3959,21 +3928,21 @@
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1">
       <c r="A75" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B75" s="7"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="26"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="28"/>
       <c r="M75" s="18"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -3982,21 +3951,21 @@
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1">
       <c r="A76" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B76" s="7"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="26"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="28"/>
       <c r="M76" s="18"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -4005,21 +3974,21 @@
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1">
       <c r="A77" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="26"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="28"/>
       <c r="M77" s="18"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -4028,21 +3997,21 @@
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1">
       <c r="A78" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="26"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="28"/>
       <c r="M78" s="18"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -4051,21 +4020,21 @@
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1">
       <c r="A79" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B79" s="7"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="26"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="28"/>
       <c r="M79" s="18"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -4074,21 +4043,21 @@
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1">
       <c r="A80" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="26"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="28"/>
       <c r="M80" s="18"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -4097,21 +4066,21 @@
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1">
       <c r="A81" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B81" s="7"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="26"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="28"/>
       <c r="M81" s="18"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -4120,21 +4089,21 @@
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1">
       <c r="A82" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B82" s="7"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="26"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="28"/>
       <c r="M82" s="18"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -4143,398 +4112,400 @@
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1">
       <c r="A83" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B83" s="7"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="26"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="28"/>
       <c r="M83" s="18"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="14"/>
       <c r="Q83" s="15"/>
     </row>
-    <row r="84" spans="1:17" ht="12" customHeight="1">
+    <row r="84" spans="1:17" ht="23" customHeight="1">
       <c r="A84" s="6">
-        <v>24</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="28"/>
       <c r="M84" s="18"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="15"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="34"/>
     </row>
     <row r="85" spans="1:17" ht="23" customHeight="1">
       <c r="A85" s="6">
-        <v>25</v>
-      </c>
-      <c r="B85" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="B85" s="31"/>
+      <c r="C85" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="28"/>
       <c r="M85" s="18"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="23"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="34"/>
     </row>
     <row r="86" spans="1:17" ht="23" customHeight="1">
       <c r="A86" s="6">
-        <v>26</v>
-      </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="B86" s="31"/>
+      <c r="C86" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="28"/>
       <c r="M86" s="18"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="23"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="15"/>
     </row>
     <row r="87" spans="1:17" ht="23" customHeight="1">
       <c r="A87" s="6">
-        <v>27</v>
-      </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="B87" s="31"/>
+      <c r="C87" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="28"/>
       <c r="M87" s="18"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="15"/>
     </row>
-    <row r="88" spans="1:17" ht="23" customHeight="1">
+    <row r="88" spans="1:17" ht="35" customHeight="1">
       <c r="A88" s="6">
-        <v>28</v>
-      </c>
-      <c r="B88" s="48"/>
-      <c r="C88" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="28"/>
       <c r="M88" s="18"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="14"/>
       <c r="Q88" s="15"/>
     </row>
-    <row r="89" spans="1:17" ht="35" customHeight="1">
+    <row r="89" spans="1:17" ht="12" customHeight="1">
       <c r="A89" s="6">
-        <v>29</v>
-      </c>
-      <c r="B89" s="60"/>
-      <c r="C89" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
       <c r="M89" s="18"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="15"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
     </row>
     <row r="90" spans="1:17" ht="12" customHeight="1">
       <c r="A90" s="6">
-        <v>30</v>
-      </c>
-      <c r="B90" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="31"/>
+      <c r="C90" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="I90" s="49"/>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="49"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="37"/>
       <c r="M90" s="18"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
-      <c r="P90" s="49"/>
-      <c r="Q90" s="49"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
     </row>
     <row r="91" spans="1:17" ht="12" customHeight="1">
       <c r="A91" s="6">
-        <v>31</v>
-      </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="61" t="s">
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="I91" s="62"/>
-      <c r="J91" s="62"/>
-      <c r="K91" s="62"/>
-      <c r="L91" s="63"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="28"/>
       <c r="M91" s="18"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
-      <c r="P91" s="49"/>
-      <c r="Q91" s="49"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
     </row>
     <row r="92" spans="1:17" ht="12" customHeight="1">
       <c r="A92" s="6">
-        <v>32</v>
-      </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="31"/>
+      <c r="C92" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="24" t="s">
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="26"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="28"/>
       <c r="M92" s="18"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
-      <c r="P92" s="49"/>
-      <c r="Q92" s="49"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
     </row>
     <row r="93" spans="1:17" ht="12" customHeight="1">
       <c r="A93" s="6">
-        <v>33</v>
-      </c>
-      <c r="B93" s="48"/>
-      <c r="C93" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="31"/>
+      <c r="C93" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="28"/>
       <c r="M93" s="18"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
-      <c r="P93" s="49"/>
-      <c r="Q93" s="49"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
     </row>
     <row r="94" spans="1:17" ht="12" customHeight="1">
       <c r="A94" s="6">
-        <v>34</v>
-      </c>
-      <c r="B94" s="48"/>
-      <c r="C94" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="31"/>
+      <c r="C94" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="26"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="28"/>
       <c r="M94" s="18"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="49"/>
-      <c r="Q94" s="49"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
     </row>
     <row r="95" spans="1:17" ht="12" customHeight="1">
       <c r="A95" s="6">
-        <v>35</v>
-      </c>
-      <c r="B95" s="48"/>
-      <c r="C95" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I95" s="25"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="25"/>
-      <c r="L95" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="B95" s="31"/>
+      <c r="C95" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
       <c r="M95" s="18"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
-      <c r="P95" s="49"/>
-      <c r="Q95" s="49"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
     </row>
     <row r="96" spans="1:17" ht="12" customHeight="1">
       <c r="A96" s="6">
-        <v>36</v>
-      </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
+        <v>37</v>
+      </c>
+      <c r="B96" s="31"/>
+      <c r="C96" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
       <c r="M96" s="18"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
-      <c r="P96" s="49"/>
-      <c r="Q96" s="49"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
     </row>
     <row r="97" spans="1:17" ht="12" customHeight="1">
       <c r="A97" s="6">
-        <v>37</v>
-      </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="I97" s="49"/>
-      <c r="J97" s="49"/>
-      <c r="K97" s="49"/>
-      <c r="L97" s="49"/>
+        <v>38</v>
+      </c>
+      <c r="B97" s="31"/>
+      <c r="C97" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
       <c r="M97" s="18"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
-      <c r="P97" s="49"/>
-      <c r="Q97" s="49"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="15"/>
     </row>
     <row r="98" spans="1:17" ht="12" customHeight="1">
       <c r="A98" s="6">
-        <v>38</v>
-      </c>
-      <c r="B98" s="48"/>
-      <c r="C98" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="I98" s="49"/>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49"/>
-      <c r="L98" s="49"/>
+        <v>39</v>
+      </c>
+      <c r="B98" s="31"/>
+      <c r="C98" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="28"/>
       <c r="M98" s="18"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -4543,23 +4514,23 @@
     </row>
     <row r="99" spans="1:17" ht="12" customHeight="1">
       <c r="A99" s="6">
-        <v>39</v>
-      </c>
-      <c r="B99" s="48"/>
-      <c r="C99" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="B99" s="31"/>
+      <c r="C99" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
       <c r="M99" s="18"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -4568,23 +4539,23 @@
     </row>
     <row r="100" spans="1:17" ht="12" customHeight="1">
       <c r="A100" s="6">
-        <v>40</v>
-      </c>
-      <c r="B100" s="48"/>
-      <c r="C100" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="I100" s="49"/>
-      <c r="J100" s="49"/>
-      <c r="K100" s="49"/>
-      <c r="L100" s="49"/>
+        <v>41</v>
+      </c>
+      <c r="B100" s="31"/>
+      <c r="C100" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
       <c r="M100" s="18"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -4593,23 +4564,23 @@
     </row>
     <row r="101" spans="1:17" ht="12" customHeight="1">
       <c r="A101" s="6">
-        <v>41</v>
-      </c>
-      <c r="B101" s="48"/>
-      <c r="C101" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="I101" s="49"/>
-      <c r="J101" s="49"/>
-      <c r="K101" s="49"/>
-      <c r="L101" s="49"/>
+        <v>42</v>
+      </c>
+      <c r="B101" s="31"/>
+      <c r="C101" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="28"/>
       <c r="M101" s="18"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -4618,23 +4589,23 @@
     </row>
     <row r="102" spans="1:17" ht="12" customHeight="1">
       <c r="A102" s="6">
-        <v>42</v>
-      </c>
-      <c r="B102" s="48"/>
-      <c r="C102" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="I102" s="49"/>
-      <c r="J102" s="49"/>
-      <c r="K102" s="49"/>
-      <c r="L102" s="49"/>
+        <v>43</v>
+      </c>
+      <c r="B102" s="31"/>
+      <c r="C102" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
       <c r="M102" s="18"/>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -4643,23 +4614,23 @@
     </row>
     <row r="103" spans="1:17" ht="12" customHeight="1">
       <c r="A103" s="6">
-        <v>43</v>
-      </c>
-      <c r="B103" s="48"/>
-      <c r="C103" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="B103" s="31"/>
+      <c r="C103" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
       <c r="M103" s="18"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -4668,23 +4639,23 @@
     </row>
     <row r="104" spans="1:17" ht="12" customHeight="1">
       <c r="A104" s="6">
-        <v>44</v>
-      </c>
-      <c r="B104" s="48"/>
-      <c r="C104" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="I104" s="49"/>
-      <c r="J104" s="49"/>
-      <c r="K104" s="49"/>
-      <c r="L104" s="49"/>
+        <v>45</v>
+      </c>
+      <c r="B104" s="31"/>
+      <c r="C104" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
       <c r="M104" s="18"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -4693,23 +4664,23 @@
     </row>
     <row r="105" spans="1:17" ht="12" customHeight="1">
       <c r="A105" s="6">
-        <v>45</v>
-      </c>
-      <c r="B105" s="48"/>
-      <c r="C105" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="I105" s="49"/>
-      <c r="J105" s="49"/>
-      <c r="K105" s="49"/>
-      <c r="L105" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="B105" s="31"/>
+      <c r="C105" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
       <c r="M105" s="18"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -4718,23 +4689,23 @@
     </row>
     <row r="106" spans="1:17" ht="12" customHeight="1">
       <c r="A106" s="6">
-        <v>46</v>
-      </c>
-      <c r="B106" s="48"/>
-      <c r="C106" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="I106" s="49"/>
-      <c r="J106" s="49"/>
-      <c r="K106" s="49"/>
-      <c r="L106" s="49"/>
+        <v>47</v>
+      </c>
+      <c r="B106" s="31"/>
+      <c r="C106" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
       <c r="M106" s="18"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -4743,23 +4714,23 @@
     </row>
     <row r="107" spans="1:17" ht="12" customHeight="1">
       <c r="A107" s="6">
-        <v>47</v>
-      </c>
-      <c r="B107" s="48"/>
-      <c r="C107" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I107" s="49"/>
-      <c r="J107" s="49"/>
-      <c r="K107" s="49"/>
-      <c r="L107" s="49"/>
+        <v>48</v>
+      </c>
+      <c r="B107" s="31"/>
+      <c r="C107" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
       <c r="M107" s="18"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -4768,93 +4739,219 @@
     </row>
     <row r="108" spans="1:17" ht="12" customHeight="1">
       <c r="A108" s="6">
-        <v>48</v>
-      </c>
-      <c r="B108" s="48"/>
-      <c r="C108" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I108" s="49"/>
-      <c r="J108" s="49"/>
-      <c r="K108" s="49"/>
-      <c r="L108" s="49"/>
+        <v>49</v>
+      </c>
+      <c r="B108" s="32"/>
+      <c r="C108" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
       <c r="M108" s="18"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="14"/>
       <c r="Q108" s="15"/>
     </row>
-    <row r="109" spans="1:17" ht="12" customHeight="1">
-      <c r="A109" s="6">
-        <v>49</v>
-      </c>
-      <c r="B109" s="48"/>
-      <c r="C109" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I109" s="49"/>
-      <c r="J109" s="49"/>
-      <c r="K109" s="49"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="15"/>
-    </row>
-    <row r="110" spans="1:17" ht="12" customHeight="1">
-      <c r="A110" s="6">
-        <v>50</v>
-      </c>
-      <c r="B110" s="60"/>
-      <c r="C110" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I110" s="49"/>
-      <c r="J110" s="49"/>
-      <c r="K110" s="49"/>
-      <c r="L110" s="49"/>
-      <c r="M110" s="18"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="15"/>
-    </row>
   </sheetData>
-  <mergeCells count="223">
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="H110:L110"/>
-    <mergeCell ref="H105:L105"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="H106:L106"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="H107:L107"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="H108:L108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="H109:L109"/>
-    <mergeCell ref="B90:B110"/>
+  <mergeCells count="219">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B35:B54"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:Q57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C58:Q58"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:L95"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:L91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:L92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:L93"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:L89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:L90"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:L94"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="C72:G83"/>
+    <mergeCell ref="H80:L80"/>
+    <mergeCell ref="C8:G11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="C66:G71"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:L88"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H78:L78"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="B89:B108"/>
+    <mergeCell ref="P89:Q89"/>
     <mergeCell ref="P90:Q90"/>
     <mergeCell ref="P91:Q91"/>
     <mergeCell ref="P92:Q92"/>
@@ -4862,7 +4959,8 @@
     <mergeCell ref="P94:Q94"/>
     <mergeCell ref="P95:Q95"/>
     <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:L97"/>
     <mergeCell ref="C98:G98"/>
     <mergeCell ref="H98:L98"/>
     <mergeCell ref="C99:G99"/>
@@ -4874,198 +4972,17 @@
     <mergeCell ref="C102:G102"/>
     <mergeCell ref="H102:L102"/>
     <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:L108"/>
     <mergeCell ref="H103:L103"/>
     <mergeCell ref="C104:G104"/>
     <mergeCell ref="H104:L104"/>
     <mergeCell ref="C105:G105"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="C63:G66"/>
-    <mergeCell ref="P65:Q66"/>
-    <mergeCell ref="C67:G72"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="C73:G84"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B35:B55"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C8:G11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H89:L89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:L90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="H91:L91"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="H88:L88"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="H95:L95"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="H97:L97"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="H92:L92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H93:L93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="H94:L94"/>
-    <mergeCell ref="H84:L84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:L86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:L87"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H78:L78"/>
-    <mergeCell ref="H79:L79"/>
-    <mergeCell ref="H80:L80"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C18:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:G17"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:Q58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:Q59"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H105:L105"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:L106"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:L107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP006カテゴリ別商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP006カテゴリ別商品検索画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24021385-1C7D-4C37-9FEC-9D71E76F0B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CFBEF1-ECFF-463E-B5A7-5BCE1D20F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="104">
   <si>
     <t>作成者</t>
   </si>
@@ -1170,32 +1170,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/customer/product/productlist」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログイン前トップ」画面が表示される。</t>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログイン」リンクが表示されていないこと</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
@@ -1229,6 +1203,49 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/customer/searchproduct」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「カテゴリ別商品検索画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1613,6 +1630,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1622,25 +1711,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1667,6 +1747,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1678,78 +1767,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2101,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:A108"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2122,25 +2139,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2155,23 +2172,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="66" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2181,53 +2198,55 @@
       <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -2236,20 +2255,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="51" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
@@ -2259,85 +2278,103 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="54" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="23"/>
     </row>
@@ -2346,21 +2383,27 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="25"/>
     </row>
@@ -2369,163 +2412,205 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="44" t="s">
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="45"/>
+      <c r="Q10" s="69"/>
     </row>
     <row r="11" spans="1:17" ht="33.5" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="47"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="26" t="s">
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="26" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="26" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="34"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
     </row>
@@ -2534,21 +2619,27 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
     </row>
@@ -2557,23 +2648,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="26" t="s">
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="15"/>
     </row>
@@ -2582,21 +2679,27 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="26" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="15"/>
     </row>
@@ -2605,21 +2708,27 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="26" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="15"/>
     </row>
@@ -2628,21 +2737,27 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="26" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="15"/>
     </row>
@@ -2651,21 +2766,27 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="26" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="15"/>
     </row>
@@ -2674,21 +2795,27 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="26" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P23" s="14"/>
       <c r="Q23" s="15"/>
     </row>
@@ -2697,21 +2824,27 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="26" t="s">
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P24" s="14"/>
       <c r="Q24" s="15"/>
     </row>
@@ -2720,21 +2853,27 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="26" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="15"/>
     </row>
@@ -2743,21 +2882,27 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="26" t="s">
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="15"/>
     </row>
@@ -2766,21 +2911,27 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="26" t="s">
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="15"/>
     </row>
@@ -2789,21 +2940,27 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="26" t="s">
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="15"/>
     </row>
@@ -2812,21 +2969,27 @@
         <v>24</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="26" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="15"/>
     </row>
@@ -2834,76 +2997,94 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="26" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="54"/>
     </row>
     <row r="31" spans="1:17" ht="23" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="26" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="54"/>
     </row>
     <row r="32" spans="1:17" ht="23" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="26" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P32" s="14"/>
       <c r="Q32" s="15"/>
     </row>
@@ -2911,24 +3092,30 @@
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="26" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="15"/>
     </row>
@@ -2936,24 +3123,30 @@
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="55"/>
+      <c r="C34" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="26" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="15"/>
     </row>
@@ -2961,226 +3154,280 @@
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="35" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="26" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="26" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="26" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="26" t="s">
+      <c r="B39" s="27"/>
+      <c r="C39" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="26" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="26" t="s">
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="26" t="s">
+      <c r="B41" s="27"/>
+      <c r="C41" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29" t="s">
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="27"/>
+      <c r="C42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29" t="s">
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29" t="s">
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="15"/>
     </row>
@@ -3188,24 +3435,30 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="26" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="26" t="s">
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="15"/>
     </row>
@@ -3213,24 +3466,30 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="26" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29" t="s">
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P45" s="14"/>
       <c r="Q45" s="15"/>
     </row>
@@ -3238,24 +3497,30 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="26" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29" t="s">
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="15"/>
     </row>
@@ -3263,24 +3528,30 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="26" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="26" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="15"/>
     </row>
@@ -3288,24 +3559,30 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="27"/>
+      <c r="C48" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29" t="s">
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="15"/>
     </row>
@@ -3313,24 +3590,30 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="27"/>
+      <c r="C49" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29" t="s">
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="15"/>
     </row>
@@ -3338,24 +3621,30 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29" t="s">
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="15"/>
     </row>
@@ -3363,24 +3652,30 @@
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="26" t="s">
+      <c r="B51" s="27"/>
+      <c r="C51" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P51" s="14"/>
       <c r="Q51" s="15"/>
     </row>
@@ -3388,24 +3683,30 @@
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="27"/>
+      <c r="C52" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29" t="s">
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P52" s="14"/>
       <c r="Q52" s="15"/>
     </row>
@@ -3413,24 +3714,30 @@
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="26" t="s">
+      <c r="B53" s="27"/>
+      <c r="C53" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P53" s="14"/>
       <c r="Q53" s="15"/>
     </row>
@@ -3438,24 +3745,30 @@
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="26" t="s">
+      <c r="B54" s="55"/>
+      <c r="C54" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="29" t="s">
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P54" s="14"/>
       <c r="Q54" s="15"/>
     </row>
@@ -3466,71 +3779,77 @@
       <c r="B55" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="C55" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P55" s="20"/>
       <c r="Q55" s="21"/>
     </row>
     <row r="57" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="57" t="s">
+      <c r="B57" s="46"/>
+      <c r="C57" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="58"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="49"/>
     </row>
     <row r="58" spans="1:17" ht="40" customHeight="1">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="59" t="s">
+      <c r="B58" s="46"/>
+      <c r="C58" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="58"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="49"/>
     </row>
     <row r="59" spans="1:17" ht="11.25" customHeight="1">
       <c r="A59" s="13" t="s">
@@ -3539,20 +3858,20 @@
       <c r="B59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="51" t="s">
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
       <c r="M59" s="16" t="s">
         <v>13</v>
       </c>
@@ -3562,85 +3881,103 @@
       <c r="O59" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P59" s="51" t="s">
+      <c r="P59" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="Q59" s="53"/>
+      <c r="Q59" s="32"/>
     </row>
     <row r="60" spans="1:17" ht="12" customHeight="1">
       <c r="A60" s="6">
         <v>1</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
     </row>
     <row r="61" spans="1:17" ht="12" customHeight="1">
       <c r="A61" s="6">
         <v>2</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="29" t="s">
+      <c r="B61" s="27"/>
+      <c r="C61" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="54" t="s">
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
     </row>
     <row r="62" spans="1:17" ht="12" customHeight="1">
       <c r="A62" s="6">
         <v>3</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="26" t="s">
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P62" s="22"/>
       <c r="Q62" s="23"/>
     </row>
@@ -3649,21 +3986,27 @@
         <v>4</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="26" t="s">
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P63" s="24"/>
       <c r="Q63" s="25"/>
     </row>
@@ -3672,163 +4015,205 @@
         <v>5</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="26" t="s">
+      <c r="C64" s="62"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="44" t="s">
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P64" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Q64" s="45"/>
+      <c r="Q64" s="69"/>
     </row>
     <row r="65" spans="1:17" ht="33.5" customHeight="1">
       <c r="A65" s="6">
         <v>6</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="26" t="s">
+      <c r="C65" s="62"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="47"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="71"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1">
       <c r="A66" s="6">
         <v>7</v>
       </c>
       <c r="B66" s="7"/>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="26" t="s">
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="34"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="54"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1">
       <c r="A67" s="6">
         <v>8</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="26" t="s">
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="34"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="54"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1">
       <c r="A68" s="6">
         <v>9</v>
       </c>
       <c r="B68" s="7"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="26" t="s">
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="34"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="54"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1">
       <c r="A69" s="6">
         <v>10</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="26" t="s">
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="34"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="54"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1">
       <c r="A70" s="6">
         <v>11</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P70" s="14"/>
       <c r="Q70" s="15"/>
     </row>
@@ -3837,21 +4222,27 @@
         <v>12</v>
       </c>
       <c r="B71" s="7"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P71" s="14"/>
       <c r="Q71" s="15"/>
     </row>
@@ -3860,23 +4251,29 @@
         <v>13</v>
       </c>
       <c r="B72" s="7"/>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="26" t="s">
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P72" s="14"/>
       <c r="Q72" s="15"/>
     </row>
@@ -3885,21 +4282,27 @@
         <v>14</v>
       </c>
       <c r="B73" s="7"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="26" t="s">
+      <c r="C73" s="62"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P73" s="14"/>
       <c r="Q73" s="15"/>
     </row>
@@ -3908,21 +4311,27 @@
         <v>15</v>
       </c>
       <c r="B74" s="7"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="26" t="s">
+      <c r="C74" s="62"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P74" s="14"/>
       <c r="Q74" s="15"/>
     </row>
@@ -3931,21 +4340,27 @@
         <v>16</v>
       </c>
       <c r="B75" s="7"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="26" t="s">
+      <c r="C75" s="62"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P75" s="14"/>
       <c r="Q75" s="15"/>
     </row>
@@ -3954,21 +4369,27 @@
         <v>17</v>
       </c>
       <c r="B76" s="7"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="26" t="s">
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P76" s="14"/>
       <c r="Q76" s="15"/>
     </row>
@@ -3977,21 +4398,27 @@
         <v>18</v>
       </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="26" t="s">
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P77" s="14"/>
       <c r="Q77" s="15"/>
     </row>
@@ -4000,21 +4427,27 @@
         <v>19</v>
       </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="26" t="s">
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P78" s="14"/>
       <c r="Q78" s="15"/>
     </row>
@@ -4023,21 +4456,27 @@
         <v>20</v>
       </c>
       <c r="B79" s="7"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="26" t="s">
+      <c r="C79" s="62"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P79" s="14"/>
       <c r="Q79" s="15"/>
     </row>
@@ -4046,21 +4485,27 @@
         <v>21</v>
       </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="26" t="s">
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P80" s="14"/>
       <c r="Q80" s="15"/>
     </row>
@@ -4069,21 +4514,27 @@
         <v>22</v>
       </c>
       <c r="B81" s="7"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="26" t="s">
+      <c r="C81" s="62"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P81" s="14"/>
       <c r="Q81" s="15"/>
     </row>
@@ -4092,21 +4543,27 @@
         <v>23</v>
       </c>
       <c r="B82" s="7"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="26" t="s">
+      <c r="C82" s="62"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P82" s="14"/>
       <c r="Q82" s="15"/>
     </row>
@@ -4115,21 +4572,27 @@
         <v>24</v>
       </c>
       <c r="B83" s="7"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="26" t="s">
+      <c r="C83" s="65"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="52"/>
+      <c r="M83" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P83" s="14"/>
       <c r="Q83" s="15"/>
     </row>
@@ -4137,76 +4600,94 @@
       <c r="A84" s="6">
         <v>25</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="26" t="s">
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="34"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="52"/>
+      <c r="M84" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="54"/>
     </row>
     <row r="85" spans="1:17" ht="23" customHeight="1">
       <c r="A85" s="6">
         <v>26</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="26" t="s">
+      <c r="B85" s="27"/>
+      <c r="C85" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="26" t="s">
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="34"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="52"/>
+      <c r="M85" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P85" s="53"/>
+      <c r="Q85" s="54"/>
     </row>
     <row r="86" spans="1:17" ht="23" customHeight="1">
       <c r="A86" s="6">
         <v>27</v>
       </c>
-      <c r="B86" s="31"/>
-      <c r="C86" s="26" t="s">
+      <c r="B86" s="27"/>
+      <c r="C86" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="26" t="s">
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P86" s="14"/>
       <c r="Q86" s="15"/>
     </row>
@@ -4214,24 +4695,30 @@
       <c r="A87" s="6">
         <v>28</v>
       </c>
-      <c r="B87" s="31"/>
-      <c r="C87" s="26" t="s">
+      <c r="B87" s="27"/>
+      <c r="C87" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="26" t="s">
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P87" s="14"/>
       <c r="Q87" s="15"/>
     </row>
@@ -4239,24 +4726,30 @@
       <c r="A88" s="6">
         <v>29</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="26" t="s">
+      <c r="B88" s="55"/>
+      <c r="C88" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="26" t="s">
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P88" s="14"/>
       <c r="Q88" s="15"/>
     </row>
@@ -4264,226 +4757,280 @@
       <c r="A89" s="6">
         <v>30</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="29" t="s">
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="29"/>
-      <c r="Q89" s="29"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
     </row>
     <row r="90" spans="1:17" ht="12" customHeight="1">
       <c r="A90" s="6">
         <v>31</v>
       </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="26" t="s">
+      <c r="B90" s="27"/>
+      <c r="C90" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="35" t="s">
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="57"/>
+      <c r="L90" s="58"/>
+      <c r="M90" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="28"/>
     </row>
     <row r="91" spans="1:17" ht="12" customHeight="1">
       <c r="A91" s="6">
         <v>32</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="26" t="s">
+      <c r="B91" s="27"/>
+      <c r="C91" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="26" t="s">
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
     </row>
     <row r="92" spans="1:17" ht="12" customHeight="1">
       <c r="A92" s="6">
         <v>33</v>
       </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="26" t="s">
+      <c r="B92" s="27"/>
+      <c r="C92" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="26" t="s">
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="28"/>
     </row>
     <row r="93" spans="1:17" ht="12" customHeight="1">
       <c r="A93" s="6">
         <v>34</v>
       </c>
-      <c r="B93" s="31"/>
-      <c r="C93" s="26" t="s">
+      <c r="B93" s="27"/>
+      <c r="C93" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="26" t="s">
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="28"/>
     </row>
     <row r="94" spans="1:17" ht="12" customHeight="1">
       <c r="A94" s="6">
         <v>35</v>
       </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="26" t="s">
+      <c r="B94" s="27"/>
+      <c r="C94" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="26" t="s">
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="28"/>
     </row>
     <row r="95" spans="1:17" ht="12" customHeight="1">
       <c r="A95" s="6">
         <v>36</v>
       </c>
-      <c r="B95" s="31"/>
-      <c r="C95" s="26" t="s">
+      <c r="B95" s="27"/>
+      <c r="C95" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
     </row>
     <row r="96" spans="1:17" ht="12" customHeight="1">
       <c r="A96" s="6">
         <v>37</v>
       </c>
-      <c r="B96" s="31"/>
-      <c r="C96" s="26" t="s">
+      <c r="B96" s="27"/>
+      <c r="C96" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="29" t="s">
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P96" s="28"/>
+      <c r="Q96" s="28"/>
     </row>
     <row r="97" spans="1:17" ht="12" customHeight="1">
       <c r="A97" s="6">
         <v>38</v>
       </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="26" t="s">
+      <c r="B97" s="27"/>
+      <c r="C97" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="29" t="s">
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P97" s="14"/>
       <c r="Q97" s="15"/>
     </row>
@@ -4491,24 +5038,30 @@
       <c r="A98" s="6">
         <v>39</v>
       </c>
-      <c r="B98" s="31"/>
-      <c r="C98" s="26" t="s">
+      <c r="B98" s="27"/>
+      <c r="C98" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="26" t="s">
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P98" s="14"/>
       <c r="Q98" s="15"/>
     </row>
@@ -4516,24 +5069,30 @@
       <c r="A99" s="6">
         <v>40</v>
       </c>
-      <c r="B99" s="31"/>
-      <c r="C99" s="26" t="s">
+      <c r="B99" s="27"/>
+      <c r="C99" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="29" t="s">
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P99" s="14"/>
       <c r="Q99" s="15"/>
     </row>
@@ -4541,24 +5100,30 @@
       <c r="A100" s="6">
         <v>41</v>
       </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="26" t="s">
+      <c r="B100" s="27"/>
+      <c r="C100" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P100" s="14"/>
       <c r="Q100" s="15"/>
     </row>
@@ -4566,24 +5131,30 @@
       <c r="A101" s="6">
         <v>42</v>
       </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="26" t="s">
+      <c r="B101" s="27"/>
+      <c r="C101" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="26" t="s">
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P101" s="14"/>
       <c r="Q101" s="15"/>
     </row>
@@ -4591,24 +5162,30 @@
       <c r="A102" s="6">
         <v>43</v>
       </c>
-      <c r="B102" s="31"/>
-      <c r="C102" s="26" t="s">
+      <c r="B102" s="27"/>
+      <c r="C102" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="29" t="s">
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P102" s="14"/>
       <c r="Q102" s="15"/>
     </row>
@@ -4616,24 +5193,30 @@
       <c r="A103" s="6">
         <v>44</v>
       </c>
-      <c r="B103" s="31"/>
-      <c r="C103" s="26" t="s">
+      <c r="B103" s="27"/>
+      <c r="C103" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="29" t="s">
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P103" s="14"/>
       <c r="Q103" s="15"/>
     </row>
@@ -4641,24 +5224,30 @@
       <c r="A104" s="6">
         <v>45</v>
       </c>
-      <c r="B104" s="31"/>
-      <c r="C104" s="26" t="s">
+      <c r="B104" s="27"/>
+      <c r="C104" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="29" t="s">
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P104" s="14"/>
       <c r="Q104" s="15"/>
     </row>
@@ -4666,24 +5255,30 @@
       <c r="A105" s="6">
         <v>46</v>
       </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="26" t="s">
+      <c r="B105" s="27"/>
+      <c r="C105" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="29" t="s">
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I105" s="29"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P105" s="14"/>
       <c r="Q105" s="15"/>
     </row>
@@ -4691,24 +5286,30 @@
       <c r="A106" s="6">
         <v>47</v>
       </c>
-      <c r="B106" s="31"/>
-      <c r="C106" s="26" t="s">
+      <c r="B106" s="27"/>
+      <c r="C106" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="29" t="s">
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P106" s="14"/>
       <c r="Q106" s="15"/>
     </row>
@@ -4716,24 +5317,30 @@
       <c r="A107" s="6">
         <v>48</v>
       </c>
-      <c r="B107" s="31"/>
-      <c r="C107" s="26" t="s">
+      <c r="B107" s="27"/>
+      <c r="C107" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="29" t="s">
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P107" s="14"/>
       <c r="Q107" s="15"/>
     </row>
@@ -4741,57 +5348,206 @@
       <c r="A108" s="6">
         <v>49</v>
       </c>
-      <c r="B108" s="32"/>
-      <c r="C108" s="26" t="s">
+      <c r="B108" s="55"/>
+      <c r="C108" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="29" t="s">
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="P108" s="14"/>
       <c r="Q108" s="15"/>
     </row>
+    <row r="109" spans="1:17" ht="11.25" customHeight="1">
+      <c r="M109" s="18"/>
+      <c r="N109" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="219">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="H103:L103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:L104"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:L105"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:L106"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:L107"/>
+    <mergeCell ref="B89:B108"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:L97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:L98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:L99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:L100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:L101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:L102"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:L108"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:L88"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H78:L78"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="C66:G71"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C8:G11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:L89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:L90"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:L94"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="C72:G83"/>
+    <mergeCell ref="H80:L80"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:L95"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:L91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:L92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:L93"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C58:Q58"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H54:L54"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="H60:L60"/>
@@ -4816,173 +5572,34 @@
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="C57:Q57"/>
     <mergeCell ref="A58:B58"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C58:Q58"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="H95:L95"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="H91:L91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="H92:L92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H93:L93"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H89:L89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:L90"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:L87"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="H94:L94"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:L84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:L86"/>
-    <mergeCell ref="C72:G83"/>
-    <mergeCell ref="H80:L80"/>
-    <mergeCell ref="C8:G11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:G17"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C18:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="P64:Q65"/>
-    <mergeCell ref="C66:G71"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="H88:L88"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H78:L78"/>
-    <mergeCell ref="H79:L79"/>
-    <mergeCell ref="B89:B108"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="H97:L97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="H98:L98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="H99:L99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="H100:L100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="H101:L101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="H102:L102"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="H108:L108"/>
-    <mergeCell ref="H103:L103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="H104:L104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="H105:L105"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="H106:L106"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="H107:L107"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP006カテゴリ別商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP006カテゴリ別商品検索画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CFBEF1-ECFF-463E-B5A7-5BCE1D20F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850BBC34-86C3-4995-94B5-4A87A1AED1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="105">
   <si>
     <t>作成者</t>
   </si>
@@ -1247,6 +1247,10 @@
     <rPh sb="3" eb="5">
       <t>タカラ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1630,25 +1634,106 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,87 +1771,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2120,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2139,25 +2143,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,23 +2176,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2203,50 +2207,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -2255,20 +2259,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="30" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
@@ -2278,32 +2282,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="32"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="18">
         <v>45511</v>
       </c>
@@ -2313,28 +2317,28 @@
       <c r="O6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="18">
         <v>45511</v>
       </c>
@@ -2344,28 +2348,28 @@
       <c r="O7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="50" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="18">
         <v>45511</v>
       </c>
@@ -2383,18 +2387,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="50" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="18">
         <v>45511</v>
       </c>
@@ -2412,18 +2416,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="50" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="18">
         <v>45511</v>
       </c>
@@ -2433,28 +2437,28 @@
       <c r="O10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P10" s="68" t="s">
+      <c r="P10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="69"/>
+      <c r="Q10" s="45"/>
     </row>
     <row r="11" spans="1:17" ht="33.5" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="50" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="18">
         <v>45511</v>
       </c>
@@ -2464,28 +2468,28 @@
       <c r="O11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="71"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="47"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="50" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="18">
         <v>45511</v>
       </c>
@@ -2495,26 +2499,26 @@
       <c r="O12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="50" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
       <c r="M13" s="18">
         <v>45511</v>
       </c>
@@ -2524,26 +2528,26 @@
       <c r="O13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="50" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="18">
         <v>45511</v>
       </c>
@@ -2553,26 +2557,26 @@
       <c r="O14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="34"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="50" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="18">
         <v>45511</v>
       </c>
@@ -2582,26 +2586,26 @@
       <c r="O15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="34"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="50" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="18">
         <v>45511</v>
       </c>
@@ -2619,18 +2623,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="50" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="18">
         <v>45511</v>
       </c>
@@ -2648,20 +2652,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="50" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="18">
         <v>45511</v>
       </c>
@@ -2679,18 +2683,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="50" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="18">
         <v>45511</v>
       </c>
@@ -2708,18 +2712,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="50" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="18">
         <v>45511</v>
       </c>
@@ -2737,18 +2741,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="50" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="18">
         <v>45511</v>
       </c>
@@ -2766,18 +2770,18 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="50" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="18">
         <v>45511</v>
       </c>
@@ -2795,18 +2799,18 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="50" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="18">
         <v>45511</v>
       </c>
@@ -2824,18 +2828,18 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="50" t="s">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="18">
         <v>45511</v>
       </c>
@@ -2853,18 +2857,18 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="50" t="s">
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="52"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="18">
         <v>45511</v>
       </c>
@@ -2882,18 +2886,18 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="50" t="s">
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="52"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="18">
         <v>45511</v>
       </c>
@@ -2911,18 +2915,18 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="50" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="18">
         <v>45511</v>
       </c>
@@ -2940,18 +2944,18 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="50" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="52"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="18">
         <v>45511</v>
       </c>
@@ -2969,18 +2973,18 @@
         <v>24</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="50" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="18">
         <v>45511</v>
       </c>
@@ -2997,23 +3001,23 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="50" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="18">
         <v>45511</v>
       </c>
@@ -3023,28 +3027,28 @@
       <c r="O30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="54"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" ht="23" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="50" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="50" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="18">
         <v>45511</v>
       </c>
@@ -3054,28 +3058,28 @@
       <c r="O31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="54"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
     </row>
     <row r="32" spans="1:17" ht="23" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="50" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="50" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
       <c r="M32" s="18">
         <v>45511</v>
       </c>
@@ -3092,21 +3096,21 @@
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="50" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="50" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
       <c r="M33" s="18">
         <v>45511</v>
       </c>
@@ -3123,21 +3127,21 @@
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="50" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="50" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="52"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
       <c r="M34" s="18">
         <v>45511</v>
       </c>
@@ -3154,23 +3158,23 @@
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="28" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="18">
         <v>45511</v>
       </c>
@@ -3180,28 +3184,28 @@
       <c r="O35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="50" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="56" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="58"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="18">
         <v>45511</v>
       </c>
@@ -3211,28 +3215,28 @@
       <c r="O36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="50" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="50" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
       <c r="M37" s="18">
         <v>45511</v>
       </c>
@@ -3242,28 +3246,28 @@
       <c r="O37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="50" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="50" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="52"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="29"/>
       <c r="M38" s="18">
         <v>45511</v>
       </c>
@@ -3273,28 +3277,28 @@
       <c r="O38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="50" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="50" t="s">
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="52"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="29"/>
       <c r="M39" s="18">
         <v>45511</v>
       </c>
@@ -3304,28 +3308,28 @@
       <c r="O39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="50" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="50" t="s">
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="52"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="29"/>
       <c r="M40" s="18">
         <v>45511</v>
       </c>
@@ -3335,28 +3339,28 @@
       <c r="O40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="28" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
       <c r="M41" s="18">
         <v>45511</v>
       </c>
@@ -3366,28 +3370,28 @@
       <c r="O41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="50" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="28" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
       <c r="M42" s="18">
         <v>45511</v>
       </c>
@@ -3397,28 +3401,28 @@
       <c r="O42" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="50" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="28" t="s">
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
       <c r="M43" s="18">
         <v>45511</v>
       </c>
@@ -3435,21 +3439,21 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="50" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="50" t="s">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="52"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="29"/>
       <c r="M44" s="18">
         <v>45511</v>
       </c>
@@ -3466,21 +3470,21 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="50" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="28" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
       <c r="M45" s="18">
         <v>45511</v>
       </c>
@@ -3497,21 +3501,21 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="50" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="28" t="s">
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
       <c r="M46" s="18">
         <v>45511</v>
       </c>
@@ -3528,21 +3532,21 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="50" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="50" t="s">
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="52"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="29"/>
       <c r="M47" s="18">
         <v>45511</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>103</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="15"/>
@@ -3559,21 +3563,21 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="50" t="s">
+      <c r="B48" s="31"/>
+      <c r="C48" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="28" t="s">
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
       <c r="M48" s="18">
         <v>45511</v>
       </c>
@@ -3590,21 +3594,21 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="50" t="s">
+      <c r="B49" s="31"/>
+      <c r="C49" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="28" t="s">
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
       <c r="M49" s="18">
         <v>45511</v>
       </c>
@@ -3621,21 +3625,21 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="50" t="s">
+      <c r="B50" s="31"/>
+      <c r="C50" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="28" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
       <c r="M50" s="18">
         <v>45511</v>
       </c>
@@ -3652,21 +3656,21 @@
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="50" t="s">
+      <c r="B51" s="31"/>
+      <c r="C51" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="28" t="s">
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
       <c r="M51" s="18">
         <v>45511</v>
       </c>
@@ -3683,21 +3687,21 @@
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="50" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="28" t="s">
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
       <c r="M52" s="18">
         <v>45511</v>
       </c>
@@ -3714,21 +3718,21 @@
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="50" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="28" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
       <c r="M53" s="18">
         <v>45511</v>
       </c>
@@ -3745,21 +3749,21 @@
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="50" t="s">
+      <c r="B54" s="32"/>
+      <c r="C54" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="28" t="s">
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
       <c r="M54" s="18">
         <v>45511</v>
       </c>
@@ -3779,20 +3783,20 @@
       <c r="B55" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="56" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="58"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="37"/>
       <c r="M55" s="18">
         <v>45511</v>
       </c>
@@ -3806,50 +3810,50 @@
       <c r="Q55" s="21"/>
     </row>
     <row r="57" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="48" t="s">
+      <c r="B57" s="59"/>
+      <c r="C57" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="49"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="56"/>
     </row>
     <row r="58" spans="1:17" ht="40" customHeight="1">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47" t="s">
+      <c r="B58" s="59"/>
+      <c r="C58" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="49"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="56"/>
     </row>
     <row r="59" spans="1:17" ht="11.25" customHeight="1">
       <c r="A59" s="13" t="s">
@@ -3858,20 +3862,20 @@
       <c r="B59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="30" t="s">
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
       <c r="M59" s="16" t="s">
         <v>13</v>
       </c>
@@ -3881,32 +3885,32 @@
       <c r="O59" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P59" s="30" t="s">
+      <c r="P59" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q59" s="32"/>
+      <c r="Q59" s="53"/>
     </row>
     <row r="60" spans="1:17" ht="12" customHeight="1">
       <c r="A60" s="6">
         <v>1</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
       <c r="M60" s="18">
         <v>45511</v>
       </c>
@@ -3916,28 +3920,28 @@
       <c r="O60" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
     </row>
     <row r="61" spans="1:17" ht="12" customHeight="1">
       <c r="A61" s="6">
         <v>2</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="28" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="29" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
       <c r="M61" s="18">
         <v>45511</v>
       </c>
@@ -3947,28 +3951,28 @@
       <c r="O61" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
     </row>
     <row r="62" spans="1:17" ht="12" customHeight="1">
       <c r="A62" s="6">
         <v>3</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="50" t="s">
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="52"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="29"/>
       <c r="M62" s="18">
         <v>45511</v>
       </c>
@@ -3986,18 +3990,18 @@
         <v>4</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="50" t="s">
+      <c r="C63" s="41"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="52"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="29"/>
       <c r="M63" s="18">
         <v>45511</v>
       </c>
@@ -4015,18 +4019,18 @@
         <v>5</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="50" t="s">
+      <c r="C64" s="41"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="52"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="29"/>
       <c r="M64" s="18">
         <v>45511</v>
       </c>
@@ -4036,28 +4040,28 @@
       <c r="O64" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P64" s="68" t="s">
+      <c r="P64" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="Q64" s="69"/>
+      <c r="Q64" s="45"/>
     </row>
     <row r="65" spans="1:17" ht="33.5" customHeight="1">
       <c r="A65" s="6">
         <v>6</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="50" t="s">
+      <c r="C65" s="41"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="52"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="29"/>
       <c r="M65" s="18">
         <v>45511</v>
       </c>
@@ -4067,28 +4071,28 @@
       <c r="O65" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="71"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="47"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1">
       <c r="A66" s="6">
         <v>7</v>
       </c>
       <c r="B66" s="7"/>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="50" t="s">
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="52"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="29"/>
       <c r="M66" s="18">
         <v>45511</v>
       </c>
@@ -4098,26 +4102,26 @@
       <c r="O66" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="54"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="34"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1">
       <c r="A67" s="6">
         <v>8</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="50" t="s">
+      <c r="C67" s="41"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="52"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
       <c r="M67" s="18">
         <v>45511</v>
       </c>
@@ -4127,26 +4131,26 @@
       <c r="O67" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="54"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="34"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1">
       <c r="A68" s="6">
         <v>9</v>
       </c>
       <c r="B68" s="7"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="50" t="s">
+      <c r="C68" s="41"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="52"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="29"/>
       <c r="M68" s="18">
         <v>45511</v>
       </c>
@@ -4156,26 +4160,26 @@
       <c r="O68" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="54"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="34"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1">
       <c r="A69" s="6">
         <v>10</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="50" t="s">
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="52"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="29"/>
       <c r="M69" s="18">
         <v>45511</v>
       </c>
@@ -4185,26 +4189,26 @@
       <c r="O69" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="54"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="34"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1">
       <c r="A70" s="6">
         <v>11</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="50" t="s">
+      <c r="C70" s="41"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="52"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
       <c r="M70" s="18">
         <v>45511</v>
       </c>
@@ -4222,18 +4226,18 @@
         <v>12</v>
       </c>
       <c r="B71" s="7"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="50" t="s">
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="52"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29"/>
       <c r="M71" s="18">
         <v>45511</v>
       </c>
@@ -4251,20 +4255,20 @@
         <v>13</v>
       </c>
       <c r="B72" s="7"/>
-      <c r="C72" s="59" t="s">
+      <c r="C72" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="50" t="s">
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="52"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="29"/>
       <c r="M72" s="18">
         <v>45511</v>
       </c>
@@ -4282,18 +4286,18 @@
         <v>14</v>
       </c>
       <c r="B73" s="7"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="50" t="s">
+      <c r="C73" s="41"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I73" s="51"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="52"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
       <c r="M73" s="18">
         <v>45511</v>
       </c>
@@ -4311,18 +4315,18 @@
         <v>15</v>
       </c>
       <c r="B74" s="7"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="50" t="s">
+      <c r="C74" s="41"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I74" s="51"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="52"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="29"/>
       <c r="M74" s="18">
         <v>45511</v>
       </c>
@@ -4340,18 +4344,18 @@
         <v>16</v>
       </c>
       <c r="B75" s="7"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="50" t="s">
+      <c r="C75" s="41"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I75" s="51"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51"/>
-      <c r="L75" s="52"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
       <c r="M75" s="18">
         <v>45511</v>
       </c>
@@ -4369,18 +4373,18 @@
         <v>17</v>
       </c>
       <c r="B76" s="7"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="50" t="s">
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="52"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
       <c r="M76" s="18">
         <v>45511</v>
       </c>
@@ -4398,18 +4402,18 @@
         <v>18</v>
       </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="50" t="s">
+      <c r="C77" s="41"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I77" s="51"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="51"/>
-      <c r="L77" s="52"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
       <c r="M77" s="18">
         <v>45511</v>
       </c>
@@ -4427,18 +4431,18 @@
         <v>19</v>
       </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="50" t="s">
+      <c r="C78" s="41"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="52"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="29"/>
       <c r="M78" s="18">
         <v>45511</v>
       </c>
@@ -4456,18 +4460,18 @@
         <v>20</v>
       </c>
       <c r="B79" s="7"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="50" t="s">
+      <c r="C79" s="41"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I79" s="51"/>
-      <c r="J79" s="51"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="52"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="29"/>
       <c r="M79" s="18">
         <v>45511</v>
       </c>
@@ -4485,18 +4489,18 @@
         <v>21</v>
       </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="50" t="s">
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I80" s="51"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="52"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="29"/>
       <c r="M80" s="18">
         <v>45511</v>
       </c>
@@ -4514,18 +4518,18 @@
         <v>22</v>
       </c>
       <c r="B81" s="7"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="50" t="s">
+      <c r="C81" s="41"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="52"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="29"/>
       <c r="M81" s="18">
         <v>45511</v>
       </c>
@@ -4543,18 +4547,18 @@
         <v>23</v>
       </c>
       <c r="B82" s="7"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="50" t="s">
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I82" s="51"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="51"/>
-      <c r="L82" s="52"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="29"/>
       <c r="M82" s="18">
         <v>45511</v>
       </c>
@@ -4572,18 +4576,18 @@
         <v>24</v>
       </c>
       <c r="B83" s="7"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="50" t="s">
+      <c r="C83" s="48"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I83" s="51"/>
-      <c r="J83" s="51"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="52"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="29"/>
       <c r="M83" s="18">
         <v>45511</v>
       </c>
@@ -4600,23 +4604,23 @@
       <c r="A84" s="6">
         <v>25</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="50" t="s">
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="52"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="29"/>
       <c r="M84" s="18">
         <v>45511</v>
       </c>
@@ -4626,28 +4630,28 @@
       <c r="O84" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P84" s="53"/>
-      <c r="Q84" s="54"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="34"/>
     </row>
     <row r="85" spans="1:17" ht="23" customHeight="1">
       <c r="A85" s="6">
         <v>26</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="50" t="s">
+      <c r="B85" s="31"/>
+      <c r="C85" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="50" t="s">
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I85" s="51"/>
-      <c r="J85" s="51"/>
-      <c r="K85" s="51"/>
-      <c r="L85" s="52"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="29"/>
       <c r="M85" s="18">
         <v>45511</v>
       </c>
@@ -4657,28 +4661,28 @@
       <c r="O85" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P85" s="53"/>
-      <c r="Q85" s="54"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="34"/>
     </row>
     <row r="86" spans="1:17" ht="23" customHeight="1">
       <c r="A86" s="6">
         <v>27</v>
       </c>
-      <c r="B86" s="27"/>
-      <c r="C86" s="50" t="s">
+      <c r="B86" s="31"/>
+      <c r="C86" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="50" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I86" s="51"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="51"/>
-      <c r="L86" s="52"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="29"/>
       <c r="M86" s="18">
         <v>45511</v>
       </c>
@@ -4695,21 +4699,21 @@
       <c r="A87" s="6">
         <v>28</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="50" t="s">
+      <c r="B87" s="31"/>
+      <c r="C87" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="50" t="s">
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="52"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="29"/>
       <c r="M87" s="18">
         <v>45511</v>
       </c>
@@ -4726,21 +4730,21 @@
       <c r="A88" s="6">
         <v>29</v>
       </c>
-      <c r="B88" s="55"/>
-      <c r="C88" s="50" t="s">
+      <c r="B88" s="32"/>
+      <c r="C88" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="50" t="s">
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I88" s="51"/>
-      <c r="J88" s="51"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="52"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="29"/>
       <c r="M88" s="18">
         <v>45511</v>
       </c>
@@ -4757,23 +4761,23 @@
       <c r="A89" s="6">
         <v>30</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="28" t="s">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
       <c r="M89" s="18">
         <v>45511</v>
       </c>
@@ -4783,28 +4787,28 @@
       <c r="O89" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="28"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
     </row>
     <row r="90" spans="1:17" ht="12" customHeight="1">
       <c r="A90" s="6">
         <v>31</v>
       </c>
-      <c r="B90" s="27"/>
-      <c r="C90" s="50" t="s">
+      <c r="B90" s="31"/>
+      <c r="C90" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="56" t="s">
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I90" s="57"/>
-      <c r="J90" s="57"/>
-      <c r="K90" s="57"/>
-      <c r="L90" s="58"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="37"/>
       <c r="M90" s="18">
         <v>45511</v>
       </c>
@@ -4814,28 +4818,28 @@
       <c r="O90" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P90" s="28"/>
-      <c r="Q90" s="28"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
     </row>
     <row r="91" spans="1:17" ht="12" customHeight="1">
       <c r="A91" s="6">
         <v>32</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="50" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="50" t="s">
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="52"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="29"/>
       <c r="M91" s="18">
         <v>45511</v>
       </c>
@@ -4845,28 +4849,28 @@
       <c r="O91" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="28"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
     </row>
     <row r="92" spans="1:17" ht="12" customHeight="1">
       <c r="A92" s="6">
         <v>33</v>
       </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="50" t="s">
+      <c r="B92" s="31"/>
+      <c r="C92" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="51"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="50" t="s">
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I92" s="51"/>
-      <c r="J92" s="51"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="52"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="29"/>
       <c r="M92" s="18">
         <v>45511</v>
       </c>
@@ -4876,28 +4880,28 @@
       <c r="O92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P92" s="28"/>
-      <c r="Q92" s="28"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
     </row>
     <row r="93" spans="1:17" ht="12" customHeight="1">
       <c r="A93" s="6">
         <v>34</v>
       </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="50" t="s">
+      <c r="B93" s="31"/>
+      <c r="C93" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="51"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="50" t="s">
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I93" s="51"/>
-      <c r="J93" s="51"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="52"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="29"/>
       <c r="M93" s="18">
         <v>45511</v>
       </c>
@@ -4907,28 +4911,28 @@
       <c r="O93" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P93" s="28"/>
-      <c r="Q93" s="28"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
     </row>
     <row r="94" spans="1:17" ht="12" customHeight="1">
       <c r="A94" s="6">
         <v>35</v>
       </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="50" t="s">
+      <c r="B94" s="31"/>
+      <c r="C94" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="50" t="s">
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="51"/>
-      <c r="J94" s="51"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="52"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="29"/>
       <c r="M94" s="18">
         <v>45511</v>
       </c>
@@ -4938,28 +4942,28 @@
       <c r="O94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="28"/>
-      <c r="Q94" s="28"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
     </row>
     <row r="95" spans="1:17" ht="12" customHeight="1">
       <c r="A95" s="6">
         <v>36</v>
       </c>
-      <c r="B95" s="27"/>
-      <c r="C95" s="50" t="s">
+      <c r="B95" s="31"/>
+      <c r="C95" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="28" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
       <c r="M95" s="18">
         <v>45511</v>
       </c>
@@ -4969,28 +4973,28 @@
       <c r="O95" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P95" s="28"/>
-      <c r="Q95" s="28"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
     </row>
     <row r="96" spans="1:17" ht="12" customHeight="1">
       <c r="A96" s="6">
         <v>37</v>
       </c>
-      <c r="B96" s="27"/>
-      <c r="C96" s="50" t="s">
+      <c r="B96" s="31"/>
+      <c r="C96" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="28" t="s">
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
       <c r="M96" s="18">
         <v>45511</v>
       </c>
@@ -5000,28 +5004,28 @@
       <c r="O96" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P96" s="28"/>
-      <c r="Q96" s="28"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
     </row>
     <row r="97" spans="1:17" ht="12" customHeight="1">
       <c r="A97" s="6">
         <v>38</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="50" t="s">
+      <c r="B97" s="31"/>
+      <c r="C97" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="28" t="s">
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="28"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
       <c r="M97" s="18">
         <v>45511</v>
       </c>
@@ -5038,21 +5042,21 @@
       <c r="A98" s="6">
         <v>39</v>
       </c>
-      <c r="B98" s="27"/>
-      <c r="C98" s="50" t="s">
+      <c r="B98" s="31"/>
+      <c r="C98" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="50" t="s">
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I98" s="51"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="52"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="29"/>
       <c r="M98" s="18">
         <v>45511</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>103</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P98" s="14"/>
       <c r="Q98" s="15"/>
@@ -5069,21 +5073,21 @@
       <c r="A99" s="6">
         <v>40</v>
       </c>
-      <c r="B99" s="27"/>
-      <c r="C99" s="50" t="s">
+      <c r="B99" s="31"/>
+      <c r="C99" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="51"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="51"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="28" t="s">
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
       <c r="M99" s="18">
         <v>45511</v>
       </c>
@@ -5100,21 +5104,21 @@
       <c r="A100" s="6">
         <v>41</v>
       </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="50" t="s">
+      <c r="B100" s="31"/>
+      <c r="C100" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="28" t="s">
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
       <c r="M100" s="18">
         <v>45511</v>
       </c>
@@ -5131,21 +5135,21 @@
       <c r="A101" s="6">
         <v>42</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="50" t="s">
+      <c r="B101" s="31"/>
+      <c r="C101" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="50" t="s">
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I101" s="51"/>
-      <c r="J101" s="51"/>
-      <c r="K101" s="51"/>
-      <c r="L101" s="52"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="29"/>
       <c r="M101" s="18">
         <v>45511</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>103</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P101" s="14"/>
       <c r="Q101" s="15"/>
@@ -5162,21 +5166,21 @@
       <c r="A102" s="6">
         <v>43</v>
       </c>
-      <c r="B102" s="27"/>
-      <c r="C102" s="50" t="s">
+      <c r="B102" s="31"/>
+      <c r="C102" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="28" t="s">
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="28"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
       <c r="M102" s="18">
         <v>45511</v>
       </c>
@@ -5193,21 +5197,21 @@
       <c r="A103" s="6">
         <v>44</v>
       </c>
-      <c r="B103" s="27"/>
-      <c r="C103" s="50" t="s">
+      <c r="B103" s="31"/>
+      <c r="C103" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="51"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="51"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="28" t="s">
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="28"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
       <c r="M103" s="18">
         <v>45511</v>
       </c>
@@ -5224,21 +5228,21 @@
       <c r="A104" s="6">
         <v>45</v>
       </c>
-      <c r="B104" s="27"/>
-      <c r="C104" s="50" t="s">
+      <c r="B104" s="31"/>
+      <c r="C104" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="51"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="51"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="28" t="s">
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="28"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
       <c r="M104" s="18">
         <v>45511</v>
       </c>
@@ -5255,21 +5259,21 @@
       <c r="A105" s="6">
         <v>46</v>
       </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="50" t="s">
+      <c r="B105" s="31"/>
+      <c r="C105" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="28" t="s">
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="26"/>
       <c r="M105" s="18">
         <v>45511</v>
       </c>
@@ -5286,21 +5290,21 @@
       <c r="A106" s="6">
         <v>47</v>
       </c>
-      <c r="B106" s="27"/>
-      <c r="C106" s="50" t="s">
+      <c r="B106" s="31"/>
+      <c r="C106" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="28" t="s">
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="28"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="26"/>
       <c r="M106" s="18">
         <v>45511</v>
       </c>
@@ -5317,21 +5321,21 @@
       <c r="A107" s="6">
         <v>48</v>
       </c>
-      <c r="B107" s="27"/>
-      <c r="C107" s="50" t="s">
+      <c r="B107" s="31"/>
+      <c r="C107" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="28" t="s">
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
       <c r="M107" s="18">
         <v>45511</v>
       </c>
@@ -5348,21 +5352,21 @@
       <c r="A108" s="6">
         <v>49</v>
       </c>
-      <c r="B108" s="55"/>
-      <c r="C108" s="50" t="s">
+      <c r="B108" s="32"/>
+      <c r="C108" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="51"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="28" t="s">
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28"/>
-      <c r="L108" s="28"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
       <c r="M108" s="18">
         <v>45511</v>
       </c>
@@ -5381,15 +5385,192 @@
     </row>
   </sheetData>
   <mergeCells count="219">
-    <mergeCell ref="H103:L103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="H104:L104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="H105:L105"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="H106:L106"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="H107:L107"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B35:B54"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:Q57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C58:Q58"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:L95"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:L91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:L92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:L93"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:L89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:L90"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:L94"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="C72:G83"/>
+    <mergeCell ref="H80:L80"/>
+    <mergeCell ref="C8:G11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="C66:G71"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:L88"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H78:L78"/>
+    <mergeCell ref="H79:L79"/>
     <mergeCell ref="B89:B108"/>
     <mergeCell ref="P89:Q89"/>
     <mergeCell ref="P90:Q90"/>
@@ -5414,192 +5595,15 @@
     <mergeCell ref="C103:G103"/>
     <mergeCell ref="C108:G108"/>
     <mergeCell ref="H108:L108"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="H88:L88"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H78:L78"/>
-    <mergeCell ref="H79:L79"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="P64:Q65"/>
-    <mergeCell ref="C66:G71"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C18:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C8:G11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:G17"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H89:L89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:L90"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:L87"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="H94:L94"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:L84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:L86"/>
-    <mergeCell ref="C72:G83"/>
-    <mergeCell ref="H80:L80"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="H95:L95"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="H91:L91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="H92:L92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H93:L93"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C58:Q58"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B35:B54"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:Q57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H103:L103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:L104"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:L105"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:L106"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:L107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP006カテゴリ別商品検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP006カテゴリ別商品検索画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850BBC34-86C3-4995-94B5-4A87A1AED1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBBE264-BBDB-41B4-9F5C-989CCF15FC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="104">
   <si>
     <t>作成者</t>
   </si>
@@ -1247,10 +1247,6 @@
     <rPh sb="3" eb="5">
       <t>タカラ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1634,9 +1630,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1646,22 +1711,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1688,6 +1747,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1699,78 +1767,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2124,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O102" sqref="O102"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2143,25 +2139,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2176,23 +2172,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="66" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2207,50 +2203,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -2259,20 +2255,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="51" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
@@ -2282,32 +2278,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="18">
         <v>45511</v>
       </c>
@@ -2317,28 +2313,28 @@
       <c r="O6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="57" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="18">
         <v>45511</v>
       </c>
@@ -2348,28 +2344,28 @@
       <c r="O7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="18">
         <v>45511</v>
       </c>
@@ -2387,18 +2383,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="18">
         <v>45511</v>
       </c>
@@ -2416,18 +2412,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="18">
         <v>45511</v>
       </c>
@@ -2437,28 +2433,28 @@
       <c r="O10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="45"/>
+      <c r="Q10" s="69"/>
     </row>
     <row r="11" spans="1:17" ht="33.5" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
       <c r="M11" s="18">
         <v>45511</v>
       </c>
@@ -2468,28 +2464,28 @@
       <c r="O11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="47"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="27" t="s">
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="18">
         <v>45511</v>
       </c>
@@ -2499,26 +2495,26 @@
       <c r="O12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="18">
         <v>45511</v>
       </c>
@@ -2528,26 +2524,26 @@
       <c r="O13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="27" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="18">
         <v>45511</v>
       </c>
@@ -2557,26 +2553,26 @@
       <c r="O14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="27" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="18">
         <v>45511</v>
       </c>
@@ -2586,26 +2582,26 @@
       <c r="O15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="34"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="27" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="18">
         <v>45511</v>
       </c>
@@ -2623,18 +2619,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="27" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="18">
         <v>45511</v>
       </c>
@@ -2652,20 +2648,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="27" t="s">
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="18">
         <v>45511</v>
       </c>
@@ -2683,18 +2679,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="27" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="18">
         <v>45511</v>
       </c>
@@ -2712,18 +2708,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="27" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="18">
         <v>45511</v>
       </c>
@@ -2741,18 +2737,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="27" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="18">
         <v>45511</v>
       </c>
@@ -2770,18 +2766,18 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="27" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="18">
         <v>45511</v>
       </c>
@@ -2799,18 +2795,18 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="27" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="18">
         <v>45511</v>
       </c>
@@ -2828,18 +2824,18 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="27" t="s">
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="18">
         <v>45511</v>
       </c>
@@ -2857,18 +2853,18 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="27" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="18">
         <v>45511</v>
       </c>
@@ -2886,18 +2882,18 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="27" t="s">
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
       <c r="M26" s="18">
         <v>45511</v>
       </c>
@@ -2915,18 +2911,18 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="27" t="s">
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
       <c r="M27" s="18">
         <v>45511</v>
       </c>
@@ -2944,18 +2940,18 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="27" t="s">
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="18">
         <v>45511</v>
       </c>
@@ -2973,18 +2969,18 @@
         <v>24</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="27" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="29"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="18">
         <v>45511</v>
       </c>
@@ -3001,23 +2997,23 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="27" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
       <c r="M30" s="18">
         <v>45511</v>
       </c>
@@ -3027,28 +3023,28 @@
       <c r="O30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="54"/>
     </row>
     <row r="31" spans="1:17" ht="23" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="27" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
       <c r="M31" s="18">
         <v>45511</v>
       </c>
@@ -3058,28 +3054,28 @@
       <c r="O31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="54"/>
     </row>
     <row r="32" spans="1:17" ht="23" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="27" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
       <c r="M32" s="18">
         <v>45511</v>
       </c>
@@ -3096,21 +3092,21 @@
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="27" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="29"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
       <c r="M33" s="18">
         <v>45511</v>
       </c>
@@ -3127,21 +3123,21 @@
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="55"/>
+      <c r="C34" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="27" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="52"/>
       <c r="M34" s="18">
         <v>45511</v>
       </c>
@@ -3158,23 +3154,23 @@
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="26" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
       <c r="M35" s="18">
         <v>45511</v>
       </c>
@@ -3184,28 +3180,28 @@
       <c r="O35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="35" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="58"/>
       <c r="M36" s="18">
         <v>45511</v>
       </c>
@@ -3215,28 +3211,28 @@
       <c r="O36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="27" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="29"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="18">
         <v>45511</v>
       </c>
@@ -3246,28 +3242,28 @@
       <c r="O37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="27" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="29"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52"/>
       <c r="M38" s="18">
         <v>45511</v>
       </c>
@@ -3277,28 +3273,28 @@
       <c r="O38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="27"/>
+      <c r="C39" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="27" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="29"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="52"/>
       <c r="M39" s="18">
         <v>45511</v>
       </c>
@@ -3308,28 +3304,28 @@
       <c r="O39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="27" t="s">
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="29"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="52"/>
       <c r="M40" s="18">
         <v>45511</v>
       </c>
@@ -3339,28 +3335,28 @@
       <c r="O40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="27" t="s">
+      <c r="B41" s="27"/>
+      <c r="C41" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="26" t="s">
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
       <c r="M41" s="18">
         <v>45511</v>
       </c>
@@ -3370,28 +3366,28 @@
       <c r="O41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="27" t="s">
+      <c r="B42" s="27"/>
+      <c r="C42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="26" t="s">
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
       <c r="M42" s="18">
         <v>45511</v>
       </c>
@@ -3401,28 +3397,28 @@
       <c r="O42" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="26" t="s">
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
       <c r="M43" s="18">
         <v>45511</v>
       </c>
@@ -3439,21 +3435,21 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="27" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="27" t="s">
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="29"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="52"/>
       <c r="M44" s="18">
         <v>45511</v>
       </c>
@@ -3470,21 +3466,21 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="27" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="26" t="s">
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
       <c r="M45" s="18">
         <v>45511</v>
       </c>
@@ -3501,21 +3497,21 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="26" t="s">
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
       <c r="M46" s="18">
         <v>45511</v>
       </c>
@@ -3532,21 +3528,21 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="27" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="29"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="52"/>
       <c r="M47" s="18">
         <v>45511</v>
       </c>
@@ -3554,7 +3550,7 @@
         <v>103</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="15"/>
@@ -3563,21 +3559,21 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="27" t="s">
+      <c r="B48" s="27"/>
+      <c r="C48" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="26" t="s">
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
       <c r="M48" s="18">
         <v>45511</v>
       </c>
@@ -3594,21 +3590,21 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="27" t="s">
+      <c r="B49" s="27"/>
+      <c r="C49" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="26" t="s">
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
       <c r="M49" s="18">
         <v>45511</v>
       </c>
@@ -3625,21 +3621,21 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="26" t="s">
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
       <c r="M50" s="18">
         <v>45511</v>
       </c>
@@ -3656,21 +3652,21 @@
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="27"/>
+      <c r="C51" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="26" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
       <c r="M51" s="18">
         <v>45511</v>
       </c>
@@ -3687,21 +3683,21 @@
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="27" t="s">
+      <c r="B52" s="27"/>
+      <c r="C52" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="26" t="s">
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
       <c r="M52" s="18">
         <v>45511</v>
       </c>
@@ -3718,21 +3714,21 @@
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="27" t="s">
+      <c r="B53" s="27"/>
+      <c r="C53" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="26" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
       <c r="M53" s="18">
         <v>45511</v>
       </c>
@@ -3749,21 +3745,21 @@
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="27" t="s">
+      <c r="B54" s="55"/>
+      <c r="C54" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="26" t="s">
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
       <c r="M54" s="18">
         <v>45511</v>
       </c>
@@ -3783,20 +3779,20 @@
       <c r="B55" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="35" t="s">
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="37"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="58"/>
       <c r="M55" s="18">
         <v>45511</v>
       </c>
@@ -3810,50 +3806,50 @@
       <c r="Q55" s="21"/>
     </row>
     <row r="57" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="55" t="s">
+      <c r="B57" s="46"/>
+      <c r="C57" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="56"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="49"/>
     </row>
     <row r="58" spans="1:17" ht="40" customHeight="1">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="54" t="s">
+      <c r="B58" s="46"/>
+      <c r="C58" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="56"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="49"/>
     </row>
     <row r="59" spans="1:17" ht="11.25" customHeight="1">
       <c r="A59" s="13" t="s">
@@ -3862,20 +3858,20 @@
       <c r="B59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="51" t="s">
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
       <c r="M59" s="16" t="s">
         <v>13</v>
       </c>
@@ -3885,32 +3881,32 @@
       <c r="O59" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P59" s="51" t="s">
+      <c r="P59" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="Q59" s="53"/>
+      <c r="Q59" s="32"/>
     </row>
     <row r="60" spans="1:17" ht="12" customHeight="1">
       <c r="A60" s="6">
         <v>1</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
       <c r="M60" s="18">
         <v>45511</v>
       </c>
@@ -3920,28 +3916,28 @@
       <c r="O60" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
     </row>
     <row r="61" spans="1:17" ht="12" customHeight="1">
       <c r="A61" s="6">
         <v>2</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="26" t="s">
+      <c r="B61" s="27"/>
+      <c r="C61" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="57" t="s">
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
       <c r="M61" s="18">
         <v>45511</v>
       </c>
@@ -3951,28 +3947,28 @@
       <c r="O61" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
     </row>
     <row r="62" spans="1:17" ht="12" customHeight="1">
       <c r="A62" s="6">
         <v>3</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="27" t="s">
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="29"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="52"/>
       <c r="M62" s="18">
         <v>45511</v>
       </c>
@@ -3990,18 +3986,18 @@
         <v>4</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="27" t="s">
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="29"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="52"/>
       <c r="M63" s="18">
         <v>45511</v>
       </c>
@@ -4019,18 +4015,18 @@
         <v>5</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="27" t="s">
+      <c r="C64" s="62"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="29"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="52"/>
       <c r="M64" s="18">
         <v>45511</v>
       </c>
@@ -4040,28 +4036,28 @@
       <c r="O64" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P64" s="44" t="s">
+      <c r="P64" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Q64" s="45"/>
+      <c r="Q64" s="69"/>
     </row>
     <row r="65" spans="1:17" ht="33.5" customHeight="1">
       <c r="A65" s="6">
         <v>6</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="27" t="s">
+      <c r="C65" s="62"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="29"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="52"/>
       <c r="M65" s="18">
         <v>45511</v>
       </c>
@@ -4071,28 +4067,28 @@
       <c r="O65" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="47"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="71"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1">
       <c r="A66" s="6">
         <v>7</v>
       </c>
       <c r="B66" s="7"/>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="27" t="s">
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="29"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="52"/>
       <c r="M66" s="18">
         <v>45511</v>
       </c>
@@ -4102,26 +4098,26 @@
       <c r="O66" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="34"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="54"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1">
       <c r="A67" s="6">
         <v>8</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="27" t="s">
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="29"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="52"/>
       <c r="M67" s="18">
         <v>45511</v>
       </c>
@@ -4131,26 +4127,26 @@
       <c r="O67" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="34"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="54"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1">
       <c r="A68" s="6">
         <v>9</v>
       </c>
       <c r="B68" s="7"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="27" t="s">
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="29"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="52"/>
       <c r="M68" s="18">
         <v>45511</v>
       </c>
@@ -4160,26 +4156,26 @@
       <c r="O68" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="34"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="54"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1">
       <c r="A69" s="6">
         <v>10</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="27" t="s">
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="29"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="52"/>
       <c r="M69" s="18">
         <v>45511</v>
       </c>
@@ -4189,26 +4185,26 @@
       <c r="O69" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="34"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="54"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1">
       <c r="A70" s="6">
         <v>11</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="27" t="s">
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="29"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="52"/>
       <c r="M70" s="18">
         <v>45511</v>
       </c>
@@ -4226,18 +4222,18 @@
         <v>12</v>
       </c>
       <c r="B71" s="7"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="27" t="s">
+      <c r="C71" s="65"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="29"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="52"/>
       <c r="M71" s="18">
         <v>45511</v>
       </c>
@@ -4255,20 +4251,20 @@
         <v>13</v>
       </c>
       <c r="B72" s="7"/>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="27" t="s">
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="29"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="52"/>
       <c r="M72" s="18">
         <v>45511</v>
       </c>
@@ -4286,18 +4282,18 @@
         <v>14</v>
       </c>
       <c r="B73" s="7"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="27" t="s">
+      <c r="C73" s="62"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="29"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="52"/>
       <c r="M73" s="18">
         <v>45511</v>
       </c>
@@ -4315,18 +4311,18 @@
         <v>15</v>
       </c>
       <c r="B74" s="7"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="27" t="s">
+      <c r="C74" s="62"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="29"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="52"/>
       <c r="M74" s="18">
         <v>45511</v>
       </c>
@@ -4344,18 +4340,18 @@
         <v>16</v>
       </c>
       <c r="B75" s="7"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="27" t="s">
+      <c r="C75" s="62"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="29"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="52"/>
       <c r="M75" s="18">
         <v>45511</v>
       </c>
@@ -4373,18 +4369,18 @@
         <v>17</v>
       </c>
       <c r="B76" s="7"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="27" t="s">
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="29"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="52"/>
       <c r="M76" s="18">
         <v>45511</v>
       </c>
@@ -4402,18 +4398,18 @@
         <v>18</v>
       </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="27" t="s">
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="29"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="52"/>
       <c r="M77" s="18">
         <v>45511</v>
       </c>
@@ -4431,18 +4427,18 @@
         <v>19</v>
       </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="27" t="s">
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="29"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="52"/>
       <c r="M78" s="18">
         <v>45511</v>
       </c>
@@ -4460,18 +4456,18 @@
         <v>20</v>
       </c>
       <c r="B79" s="7"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="27" t="s">
+      <c r="C79" s="62"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="29"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="52"/>
       <c r="M79" s="18">
         <v>45511</v>
       </c>
@@ -4489,18 +4485,18 @@
         <v>21</v>
       </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="27" t="s">
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="29"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="52"/>
       <c r="M80" s="18">
         <v>45511</v>
       </c>
@@ -4518,18 +4514,18 @@
         <v>22</v>
       </c>
       <c r="B81" s="7"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="27" t="s">
+      <c r="C81" s="62"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="29"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="52"/>
       <c r="M81" s="18">
         <v>45511</v>
       </c>
@@ -4547,18 +4543,18 @@
         <v>23</v>
       </c>
       <c r="B82" s="7"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="27" t="s">
+      <c r="C82" s="62"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="29"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="52"/>
       <c r="M82" s="18">
         <v>45511</v>
       </c>
@@ -4576,18 +4572,18 @@
         <v>24</v>
       </c>
       <c r="B83" s="7"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="27" t="s">
+      <c r="C83" s="65"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="29"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="52"/>
       <c r="M83" s="18">
         <v>45511</v>
       </c>
@@ -4604,23 +4600,23 @@
       <c r="A84" s="6">
         <v>25</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="27" t="s">
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="29"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="52"/>
       <c r="M84" s="18">
         <v>45511</v>
       </c>
@@ -4630,28 +4626,28 @@
       <c r="O84" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="34"/>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="54"/>
     </row>
     <row r="85" spans="1:17" ht="23" customHeight="1">
       <c r="A85" s="6">
         <v>26</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="27" t="s">
+      <c r="B85" s="27"/>
+      <c r="C85" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="27" t="s">
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="29"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="52"/>
       <c r="M85" s="18">
         <v>45511</v>
       </c>
@@ -4661,28 +4657,28 @@
       <c r="O85" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="34"/>
+      <c r="P85" s="53"/>
+      <c r="Q85" s="54"/>
     </row>
     <row r="86" spans="1:17" ht="23" customHeight="1">
       <c r="A86" s="6">
         <v>27</v>
       </c>
-      <c r="B86" s="31"/>
-      <c r="C86" s="27" t="s">
+      <c r="B86" s="27"/>
+      <c r="C86" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="27" t="s">
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="29"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="52"/>
       <c r="M86" s="18">
         <v>45511</v>
       </c>
@@ -4699,21 +4695,21 @@
       <c r="A87" s="6">
         <v>28</v>
       </c>
-      <c r="B87" s="31"/>
-      <c r="C87" s="27" t="s">
+      <c r="B87" s="27"/>
+      <c r="C87" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="27" t="s">
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="29"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="52"/>
       <c r="M87" s="18">
         <v>45511</v>
       </c>
@@ -4730,21 +4726,21 @@
       <c r="A88" s="6">
         <v>29</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="27" t="s">
+      <c r="B88" s="55"/>
+      <c r="C88" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="27" t="s">
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="29"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="52"/>
       <c r="M88" s="18">
         <v>45511</v>
       </c>
@@ -4761,23 +4757,23 @@
       <c r="A89" s="6">
         <v>30</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="26" t="s">
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="26"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
       <c r="M89" s="18">
         <v>45511</v>
       </c>
@@ -4787,28 +4783,28 @@
       <c r="O89" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="26"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
     </row>
     <row r="90" spans="1:17" ht="12" customHeight="1">
       <c r="A90" s="6">
         <v>31</v>
       </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="27" t="s">
+      <c r="B90" s="27"/>
+      <c r="C90" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="35" t="s">
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="37"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="57"/>
+      <c r="L90" s="58"/>
       <c r="M90" s="18">
         <v>45511</v>
       </c>
@@ -4818,28 +4814,28 @@
       <c r="O90" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="28"/>
     </row>
     <row r="91" spans="1:17" ht="12" customHeight="1">
       <c r="A91" s="6">
         <v>32</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="27" t="s">
+      <c r="B91" s="27"/>
+      <c r="C91" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="27" t="s">
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="29"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="52"/>
       <c r="M91" s="18">
         <v>45511</v>
       </c>
@@ -4849,28 +4845,28 @@
       <c r="O91" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="26"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
     </row>
     <row r="92" spans="1:17" ht="12" customHeight="1">
       <c r="A92" s="6">
         <v>33</v>
       </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="27" t="s">
+      <c r="B92" s="27"/>
+      <c r="C92" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="27" t="s">
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="29"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="52"/>
       <c r="M92" s="18">
         <v>45511</v>
       </c>
@@ -4880,28 +4876,28 @@
       <c r="O92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="28"/>
     </row>
     <row r="93" spans="1:17" ht="12" customHeight="1">
       <c r="A93" s="6">
         <v>34</v>
       </c>
-      <c r="B93" s="31"/>
-      <c r="C93" s="27" t="s">
+      <c r="B93" s="27"/>
+      <c r="C93" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="27" t="s">
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="29"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="52"/>
       <c r="M93" s="18">
         <v>45511</v>
       </c>
@@ -4911,28 +4907,28 @@
       <c r="O93" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="28"/>
     </row>
     <row r="94" spans="1:17" ht="12" customHeight="1">
       <c r="A94" s="6">
         <v>35</v>
       </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="27" t="s">
+      <c r="B94" s="27"/>
+      <c r="C94" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="27" t="s">
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="29"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="52"/>
       <c r="M94" s="18">
         <v>45511</v>
       </c>
@@ -4942,28 +4938,28 @@
       <c r="O94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="26"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="28"/>
     </row>
     <row r="95" spans="1:17" ht="12" customHeight="1">
       <c r="A95" s="6">
         <v>36</v>
       </c>
-      <c r="B95" s="31"/>
-      <c r="C95" s="27" t="s">
+      <c r="B95" s="27"/>
+      <c r="C95" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="26" t="s">
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="26"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
       <c r="M95" s="18">
         <v>45511</v>
       </c>
@@ -4973,28 +4969,28 @@
       <c r="O95" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P95" s="26"/>
-      <c r="Q95" s="26"/>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
     </row>
     <row r="96" spans="1:17" ht="12" customHeight="1">
       <c r="A96" s="6">
         <v>37</v>
       </c>
-      <c r="B96" s="31"/>
-      <c r="C96" s="27" t="s">
+      <c r="B96" s="27"/>
+      <c r="C96" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="26" t="s">
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="26"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
       <c r="M96" s="18">
         <v>45511</v>
       </c>
@@ -5004,28 +5000,28 @@
       <c r="O96" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="26"/>
+      <c r="P96" s="28"/>
+      <c r="Q96" s="28"/>
     </row>
     <row r="97" spans="1:17" ht="12" customHeight="1">
       <c r="A97" s="6">
         <v>38</v>
       </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="27" t="s">
+      <c r="B97" s="27"/>
+      <c r="C97" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="26" t="s">
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="26"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
       <c r="M97" s="18">
         <v>45511</v>
       </c>
@@ -5042,21 +5038,21 @@
       <c r="A98" s="6">
         <v>39</v>
       </c>
-      <c r="B98" s="31"/>
-      <c r="C98" s="27" t="s">
+      <c r="B98" s="27"/>
+      <c r="C98" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="27" t="s">
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="29"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="52"/>
       <c r="M98" s="18">
         <v>45511</v>
       </c>
@@ -5064,7 +5060,7 @@
         <v>103</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P98" s="14"/>
       <c r="Q98" s="15"/>
@@ -5073,21 +5069,21 @@
       <c r="A99" s="6">
         <v>40</v>
       </c>
-      <c r="B99" s="31"/>
-      <c r="C99" s="27" t="s">
+      <c r="B99" s="27"/>
+      <c r="C99" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="26" t="s">
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="26"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
       <c r="M99" s="18">
         <v>45511</v>
       </c>
@@ -5104,21 +5100,21 @@
       <c r="A100" s="6">
         <v>41</v>
       </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="27" t="s">
+      <c r="B100" s="27"/>
+      <c r="C100" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="26" t="s">
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
       <c r="M100" s="18">
         <v>45511</v>
       </c>
@@ -5135,21 +5131,21 @@
       <c r="A101" s="6">
         <v>42</v>
       </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="27" t="s">
+      <c r="B101" s="27"/>
+      <c r="C101" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="27" t="s">
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="29"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="52"/>
       <c r="M101" s="18">
         <v>45511</v>
       </c>
@@ -5157,7 +5153,7 @@
         <v>103</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P101" s="14"/>
       <c r="Q101" s="15"/>
@@ -5166,21 +5162,21 @@
       <c r="A102" s="6">
         <v>43</v>
       </c>
-      <c r="B102" s="31"/>
-      <c r="C102" s="27" t="s">
+      <c r="B102" s="27"/>
+      <c r="C102" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="26" t="s">
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
       <c r="M102" s="18">
         <v>45511</v>
       </c>
@@ -5197,21 +5193,21 @@
       <c r="A103" s="6">
         <v>44</v>
       </c>
-      <c r="B103" s="31"/>
-      <c r="C103" s="27" t="s">
+      <c r="B103" s="27"/>
+      <c r="C103" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="26" t="s">
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
       <c r="M103" s="18">
         <v>45511</v>
       </c>
@@ -5228,21 +5224,21 @@
       <c r="A104" s="6">
         <v>45</v>
       </c>
-      <c r="B104" s="31"/>
-      <c r="C104" s="27" t="s">
+      <c r="B104" s="27"/>
+      <c r="C104" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="26" t="s">
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
-      <c r="L104" s="26"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
       <c r="M104" s="18">
         <v>45511</v>
       </c>
@@ -5259,21 +5255,21 @@
       <c r="A105" s="6">
         <v>46</v>
       </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="27" t="s">
+      <c r="B105" s="27"/>
+      <c r="C105" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="26" t="s">
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="26"/>
-      <c r="L105" s="26"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
       <c r="M105" s="18">
         <v>45511</v>
       </c>
@@ -5290,21 +5286,21 @@
       <c r="A106" s="6">
         <v>47</v>
       </c>
-      <c r="B106" s="31"/>
-      <c r="C106" s="27" t="s">
+      <c r="B106" s="27"/>
+      <c r="C106" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="26" t="s">
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="26"/>
-      <c r="L106" s="26"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
       <c r="M106" s="18">
         <v>45511</v>
       </c>
@@ -5321,21 +5317,21 @@
       <c r="A107" s="6">
         <v>48</v>
       </c>
-      <c r="B107" s="31"/>
-      <c r="C107" s="27" t="s">
+      <c r="B107" s="27"/>
+      <c r="C107" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="26" t="s">
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
       <c r="M107" s="18">
         <v>45511</v>
       </c>
@@ -5352,21 +5348,21 @@
       <c r="A108" s="6">
         <v>49</v>
       </c>
-      <c r="B108" s="32"/>
-      <c r="C108" s="27" t="s">
+      <c r="B108" s="55"/>
+      <c r="C108" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="26" t="s">
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
       <c r="M108" s="18">
         <v>45511</v>
       </c>
@@ -5385,34 +5381,168 @@
     </row>
   </sheetData>
   <mergeCells count="219">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="H103:L103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:L104"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:L105"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:L106"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:L107"/>
+    <mergeCell ref="B89:B108"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:L97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:L98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:L99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:L100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:L101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:L102"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:L108"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:L88"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H78:L78"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="C66:G71"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C8:G11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="C72:G83"/>
+    <mergeCell ref="H80:L80"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:L95"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:L91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:L92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:L93"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:L89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:L90"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:L94"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C58:Q58"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="C59:G59"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="H60:L60"/>
@@ -5437,173 +5567,39 @@
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="C57:Q57"/>
     <mergeCell ref="A58:B58"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C58:Q58"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H47:L47"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="H95:L95"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="H91:L91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="H92:L92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H93:L93"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H89:L89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:L90"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:L87"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="H94:L94"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:L84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:L86"/>
-    <mergeCell ref="C72:G83"/>
-    <mergeCell ref="H80:L80"/>
-    <mergeCell ref="C8:G11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:G17"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C18:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="P64:Q65"/>
-    <mergeCell ref="C66:G71"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="H88:L88"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H78:L78"/>
-    <mergeCell ref="H79:L79"/>
-    <mergeCell ref="B89:B108"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="H97:L97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="H98:L98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="H99:L99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="H100:L100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="H101:L101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="H102:L102"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="H108:L108"/>
-    <mergeCell ref="H103:L103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="H104:L104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="H105:L105"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="H106:L106"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="H107:L107"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
